--- a/Weakening-CB-Experiment-TABLES.xlsx
+++ b/Weakening-CB-Experiment-TABLES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvaroforteza/Documents/Agency/Experimento dismantling CB/Articulo y presentación/artículo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE246F6A-6801-214F-868D-F16ED1CC9DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0923985F-8756-B44B-9BD0-F523D128633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README FIRST" sheetId="10" r:id="rId1"/>
@@ -24,27 +24,30 @@
     <sheet name="mhtreg (2)" sheetId="41" r:id="rId9"/>
     <sheet name="mht Anderson (2)" sheetId="43" r:id="rId10"/>
     <sheet name="controls.xls (2)" sheetId="42" r:id="rId11"/>
-    <sheet name="table-excessSP" sheetId="34" r:id="rId12"/>
-    <sheet name="table-descriptive1" sheetId="27" r:id="rId13"/>
-    <sheet name="table-descriptive1-v2" sheetId="26" r:id="rId14"/>
-    <sheet name="descriptive_experiment1.xls" sheetId="28" r:id="rId15"/>
-    <sheet name="descriptive_Uruguay.xls" sheetId="29" r:id="rId16"/>
-    <sheet name="table-descriptive2" sheetId="30" r:id="rId17"/>
-    <sheet name="descriptive_experiment2" sheetId="31" r:id="rId18"/>
-    <sheet name="table-balance1" sheetId="57" r:id="rId19"/>
-    <sheet name="table-balance2" sheetId="58" r:id="rId20"/>
-    <sheet name="table-frequencies" sheetId="45" r:id="rId21"/>
-    <sheet name="SPHq.xls" sheetId="46" r:id="rId22"/>
-    <sheet name="SPLq.xls" sheetId="47" r:id="rId23"/>
-    <sheet name="pv-proportions.xls" sheetId="48" r:id="rId24"/>
-    <sheet name="pvbenharm.xls" sheetId="49" r:id="rId25"/>
-    <sheet name="table-rents" sheetId="52" r:id="rId26"/>
-    <sheet name="highvslowrents.xls" sheetId="51" r:id="rId27"/>
-    <sheet name="table-framing" sheetId="53" r:id="rId28"/>
-    <sheet name="framing.xls" sheetId="54" r:id="rId29"/>
-    <sheet name="table-lowfreqpriming" sheetId="55" r:id="rId30"/>
-    <sheet name="lowfreqpriming.xls" sheetId="56" r:id="rId31"/>
-    <sheet name="table-slides" sheetId="40" r:id="rId32"/>
+    <sheet name="table-main (3)" sheetId="59" r:id="rId12"/>
+    <sheet name="mhtreg (3)" sheetId="60" r:id="rId13"/>
+    <sheet name="mht Anderson (3)" sheetId="61" r:id="rId14"/>
+    <sheet name="table-excessSP" sheetId="34" r:id="rId15"/>
+    <sheet name="table-descriptive1" sheetId="27" r:id="rId16"/>
+    <sheet name="table-descriptive1-v2" sheetId="26" r:id="rId17"/>
+    <sheet name="descriptive_experiment1.xls" sheetId="28" r:id="rId18"/>
+    <sheet name="descriptive_Uruguay.xls" sheetId="29" r:id="rId19"/>
+    <sheet name="table-descriptive2" sheetId="30" r:id="rId20"/>
+    <sheet name="descriptive_experiment2" sheetId="31" r:id="rId21"/>
+    <sheet name="table-balance1" sheetId="57" r:id="rId22"/>
+    <sheet name="table-balance2" sheetId="58" r:id="rId23"/>
+    <sheet name="table-frequencies" sheetId="45" r:id="rId24"/>
+    <sheet name="SPHq.xls" sheetId="46" r:id="rId25"/>
+    <sheet name="SPLq.xls" sheetId="47" r:id="rId26"/>
+    <sheet name="pv-proportions.xls" sheetId="48" r:id="rId27"/>
+    <sheet name="pvbenharm.xls" sheetId="49" r:id="rId28"/>
+    <sheet name="table-rents" sheetId="52" r:id="rId29"/>
+    <sheet name="highvslowrents.xls" sheetId="51" r:id="rId30"/>
+    <sheet name="table-framing" sheetId="53" r:id="rId31"/>
+    <sheet name="framing.xls" sheetId="54" r:id="rId32"/>
+    <sheet name="table-lowfreqpriming" sheetId="55" r:id="rId33"/>
+    <sheet name="lowfreqpriming.xls" sheetId="56" r:id="rId34"/>
+    <sheet name="table-slides" sheetId="40" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="416">
   <si>
     <t/>
   </si>
@@ -1303,6 +1306,15 @@
   </si>
   <si>
     <t>.8763333</t>
+  </si>
+  <si>
+    <t>c) Clusters at individual level.</t>
+  </si>
+  <si>
+    <t>c) Clusters at session level.</t>
+  </si>
+  <si>
+    <t>Clusters at the session level.</t>
   </si>
 </sst>
 </file>
@@ -1764,6 +1776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1778,19 +1791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1806,8 +1806,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1817,13 +1837,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1832,7 +1845,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2710,6 +2722,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4498C2-B181-2542-9ED6-DD3B521BB7A0}">
+  <dimension ref="A3:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="44">
+        <f>+'mhtreg (3)'!C5</f>
+        <v>0.30964269999999999</v>
+      </c>
+      <c r="C6" s="44">
+        <f>+'mhtreg (3)'!D5</f>
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="D6" s="44">
+        <f>+'mhtreg (3)'!E5</f>
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+'mht Anderson (3)'!D4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="44">
+        <f>+'controls.xls'!A2</f>
+        <v>0.10243195295333862</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="44">
+        <f>+'mhtreg (3)'!C6</f>
+        <v>0.48956040000000001</v>
+      </c>
+      <c r="C7" s="44">
+        <f>+'mhtreg (3)'!D6</f>
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="D7" s="44">
+        <f>+'mhtreg (3)'!E6</f>
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="E7" s="3">
+        <f>+'mht Anderson (3)'!D5</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="44">
+        <f>+'controls.xls'!A3</f>
+        <v>0.10243195295333862</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="44">
+        <f>+'mhtreg (3)'!C7</f>
+        <v>0.1866554</v>
+      </c>
+      <c r="C8" s="44">
+        <f>+'mhtreg (3)'!D7</f>
+        <v>6.5666699999999995E-2</v>
+      </c>
+      <c r="D8" s="44">
+        <f>+'mhtreg (3)'!E7</f>
+        <v>0.5253333</v>
+      </c>
+      <c r="E8" s="3">
+        <f>+'mht Anderson (3)'!D6</f>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F8" s="44">
+        <f>+'controls.xls'!A4</f>
+        <v>0.10243195295333862</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="44">
+        <f>+'mhtreg (3)'!C8</f>
+        <v>9.7386500000000001E-2</v>
+      </c>
+      <c r="C9" s="44">
+        <f>+'mhtreg (3)'!D8</f>
+        <v>1.3332999999999999E-3</v>
+      </c>
+      <c r="D9" s="44">
+        <f>+'mhtreg (3)'!E8</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <f>+'mht Anderson (3)'!D7</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F9" s="44">
+        <f>+'controls.xls'!A5</f>
+        <v>0.10243195295333862</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="44">
+        <f>+'mhtreg (3)'!C9</f>
+        <v>9.7605300000000006E-2</v>
+      </c>
+      <c r="C10" s="44">
+        <f>+'mhtreg (3)'!D9</f>
+        <v>0.21633330000000001</v>
+      </c>
+      <c r="D10" s="44">
+        <f>+'mhtreg (3)'!E9</f>
+        <v>0.91233330000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <f>+'mht Anderson (3)'!D8</f>
+        <v>0.61</v>
+      </c>
+      <c r="F10" s="44">
+        <f>+'controls.xls'!A6</f>
+        <v>0.34670829772949219</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="44">
+        <f>+'mhtreg (3)'!C10</f>
+        <v>-7.1526099999999995E-2</v>
+      </c>
+      <c r="C11" s="44">
+        <f>+'mhtreg (3)'!D10</f>
+        <v>0.113</v>
+      </c>
+      <c r="D11" s="44">
+        <f>+'mhtreg (3)'!E10</f>
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E11" s="3">
+        <f>+'mht Anderson (3)'!D9</f>
+        <v>0.32</v>
+      </c>
+      <c r="F11" s="44">
+        <f>+'controls.xls'!A7</f>
+        <v>0.1787562370300293</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="44">
+        <f>+'mhtreg (3)'!C11</f>
+        <v>-2.8691100000000001E-2</v>
+      </c>
+      <c r="C12" s="44">
+        <f>+'mhtreg (3)'!D11</f>
+        <v>0.45866669999999998</v>
+      </c>
+      <c r="D12" s="44">
+        <f>+'mhtreg (3)'!E11</f>
+        <v>0.99266670000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <f>+'mht Anderson (3)'!D10</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="44">
+        <f>+'controls.xls'!A8</f>
+        <v>0.16815458238124847</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="44">
+        <f>+'mhtreg (3)'!C12</f>
+        <v>-6.3201800000000002E-2</v>
+      </c>
+      <c r="C13" s="44">
+        <f>+'mhtreg (3)'!D12</f>
+        <v>5.8666700000000002E-2</v>
+      </c>
+      <c r="D13" s="44">
+        <f>+'mhtreg (3)'!E12</f>
+        <v>0.497</v>
+      </c>
+      <c r="E13" s="3">
+        <f>+'mht Anderson (3)'!D11</f>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F13" s="44">
+        <f>+'controls.xls'!A9</f>
+        <v>0.1720786988735199</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="44">
+        <f>+'mhtreg (3)'!C13</f>
+        <v>2.9161900000000001E-2</v>
+      </c>
+      <c r="C14" s="44">
+        <f>+'mhtreg (3)'!D13</f>
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D14" s="44">
+        <f>+'mhtreg (3)'!E13</f>
+        <v>0.999</v>
+      </c>
+      <c r="E14" s="3">
+        <f>+'mht Anderson (3)'!D12</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="44">
+        <f>+'controls.xls'!A10</f>
+        <v>0.16056397557258606</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C128327-95AB-7F47-B888-B00944AC0E29}">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="218" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="40">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0.30964269999999999</v>
+      </c>
+      <c r="D5" s="40">
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="E5" s="40">
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="F5" s="40">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="40">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="40">
+        <v>2</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.48956040000000001</v>
+      </c>
+      <c r="D6" s="40">
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="E6" s="40">
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="F6" s="40">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="40">
+        <v>6.6667000000000002E-3</v>
+      </c>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="40">
+        <v>3</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0.1866554</v>
+      </c>
+      <c r="D7" s="40">
+        <v>6.5666699999999995E-2</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0.5253333</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="40">
+        <v>4</v>
+      </c>
+      <c r="C8" s="40">
+        <v>9.7386500000000001E-2</v>
+      </c>
+      <c r="D8" s="40">
+        <v>1.3332999999999999E-3</v>
+      </c>
+      <c r="E8" s="40">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F8" s="40">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G8" s="40">
+        <v>2.53333E-2</v>
+      </c>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="40">
+        <v>5</v>
+      </c>
+      <c r="C9" s="40">
+        <v>9.7605300000000006E-2</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0.21633330000000001</v>
+      </c>
+      <c r="E9" s="40">
+        <v>0.91233330000000001</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="40">
+        <v>6</v>
+      </c>
+      <c r="C10" s="40">
+        <v>-7.1526099999999995E-2</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0.113</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1</v>
+      </c>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="40">
+        <v>7</v>
+      </c>
+      <c r="C11" s="40">
+        <v>-2.8691100000000001E-2</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.45866669999999998</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0.99266670000000001</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1</v>
+      </c>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="40">
+        <v>8</v>
+      </c>
+      <c r="C12" s="40">
+        <v>-6.3201800000000002E-2</v>
+      </c>
+      <c r="D12" s="40">
+        <v>5.8666700000000002E-2</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0.497</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40">
+        <v>0.99733329999999998</v>
+      </c>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="40">
+        <v>9</v>
+      </c>
+      <c r="C13" s="40">
+        <v>2.9161900000000001E-2</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="E13" s="40">
+        <v>0.999</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1</v>
+      </c>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="40">
+        <v>10</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1.7386100000000002E-2</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.95033330000000005</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0.99866670000000002</v>
+      </c>
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="40">
+        <v>11</v>
+      </c>
+      <c r="C15" s="40">
+        <v>-6.5278900000000001E-2</v>
+      </c>
+      <c r="D15" s="40">
+        <v>0.55933330000000003</v>
+      </c>
+      <c r="E15" s="40">
+        <v>0.995</v>
+      </c>
+      <c r="F15" s="40">
+        <v>1</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1</v>
+      </c>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="40">
+        <v>12</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1.6160399999999998E-2</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0.93966669999999997</v>
+      </c>
+      <c r="E16" s="40">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="40">
+        <v>13</v>
+      </c>
+      <c r="C17" s="40">
+        <v>-1.72929E-2</v>
+      </c>
+      <c r="D17" s="40">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E17" s="40">
+        <v>0.99966670000000002</v>
+      </c>
+      <c r="F17" s="40">
+        <v>1</v>
+      </c>
+      <c r="G17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="40">
+        <v>14</v>
+      </c>
+      <c r="C18" s="40">
+        <v>0.1357777</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0.43</v>
+      </c>
+      <c r="E18" s="40">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F18" s="40">
+        <v>1</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="40">
+        <v>15</v>
+      </c>
+      <c r="C19" s="40">
+        <v>-1.0058000000000001E-3</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E19" s="40">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F19" s="40">
+        <v>1</v>
+      </c>
+      <c r="G19" s="40">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="40">
+        <v>16</v>
+      </c>
+      <c r="C20" s="40">
+        <v>-0.1020264</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0.3496667</v>
+      </c>
+      <c r="E20" s="40">
+        <v>0.9776667</v>
+      </c>
+      <c r="F20" s="40">
+        <v>1</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="40">
+        <v>17</v>
+      </c>
+      <c r="C21" s="40">
+        <v>-2.2204499999999999E-2</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E21" s="40">
+        <v>0.99666670000000002</v>
+      </c>
+      <c r="F21" s="40">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40">
+        <v>1</v>
+      </c>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="40">
+        <v>18</v>
+      </c>
+      <c r="C22" s="40">
+        <v>-0.1828485</v>
+      </c>
+      <c r="D22" s="40">
+        <v>0.43933329999999998</v>
+      </c>
+      <c r="E22" s="40">
+        <v>0.99266670000000001</v>
+      </c>
+      <c r="F22" s="40">
+        <v>1</v>
+      </c>
+      <c r="G22" s="40">
+        <v>1</v>
+      </c>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="40">
+        <v>19</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1.2126700000000001E-2</v>
+      </c>
+      <c r="D23" s="40">
+        <v>0.86433329999999997</v>
+      </c>
+      <c r="E23" s="40">
+        <v>1</v>
+      </c>
+      <c r="F23" s="40">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="40">
+        <v>20</v>
+      </c>
+      <c r="C24" s="40">
+        <v>9.97445E-2</v>
+      </c>
+      <c r="D24" s="40">
+        <v>7.6667000000000003E-3</v>
+      </c>
+      <c r="E24" s="40">
+        <v>8.6666699999999999E-2</v>
+      </c>
+      <c r="F24" s="40">
+        <v>0.161</v>
+      </c>
+      <c r="G24" s="40">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="40">
+        <v>21</v>
+      </c>
+      <c r="C25" s="40">
+        <v>-1.3135300000000001E-2</v>
+      </c>
+      <c r="D25" s="40">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E25" s="40">
+        <v>1</v>
+      </c>
+      <c r="F25" s="40">
+        <v>1</v>
+      </c>
+      <c r="G25" s="40">
+        <v>1</v>
+      </c>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" t="s">
+        <v>209</v>
+      </c>
+      <c r="L36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" t="s">
+        <v>211</v>
+      </c>
+      <c r="M37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2273C9-828F-C844-AA58-65740F051C32}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.3330000000000002E-4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.5666699999999995E-2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.3332999999999999E-3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.21633330000000001</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.113</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.45866669999999998</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5.8666700000000002E-2</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.95033330000000005</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.55933330000000003</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.93966669999999997</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.43</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.3496667</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.43933329999999998</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.86433329999999997</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7.6667000000000003E-3</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:H22"/>
   <sheetViews>
@@ -2728,11 +4122,11 @@
       <c r="B3" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="43" t="s">
         <v>173</v>
       </c>
@@ -2741,10 +4135,10 @@
       <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" t="s">
         <v>24</v>
       </c>
@@ -3086,7 +4480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:I39"/>
@@ -3116,16 +4510,16 @@
       <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="63"/>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="96" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3143,13 +4537,13 @@
       <c r="G3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="88"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="37"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -3158,10 +4552,10 @@
       <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="54">
         <f>+descriptive_experiment1.xls!C4</f>
         <v>0.63</v>
@@ -3184,10 +4578,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="54">
         <f>+descriptive_experiment1.xls!C5</f>
         <v>0.6</v>
@@ -3204,10 +4598,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="89"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -3254,10 +4648,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
@@ -3304,10 +4698,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
@@ -3368,10 +4762,10 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
@@ -3381,10 +4775,10 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
@@ -3444,10 +4838,10 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="89"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
@@ -3508,10 +4902,10 @@
       <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="89"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
@@ -3569,10 +4963,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="89"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -3631,10 +5025,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
@@ -3693,10 +5087,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="95"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
@@ -3755,10 +5149,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="96"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="60">
         <f>+descriptive_experiment1.xls!C12</f>
         <v>0.9</v>
@@ -3781,10 +5175,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="89"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="54">
         <f>+descriptive_experiment1.xls!C25</f>
         <v>0.24</v>
@@ -3807,10 +5201,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="89"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="54">
         <f>+descriptive_experiment1.xls!C26</f>
         <v>0.56000000000000005</v>
@@ -3833,10 +5227,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="89"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="54">
         <f>+descriptive_experiment1.xls!C27</f>
         <v>4.1000000000000002E-2</v>
@@ -3859,10 +5253,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="90"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="36">
         <f>+descriptive_experiment1.xls!C28</f>
         <v>0.98</v>
@@ -3886,6 +5280,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
@@ -3902,18 +5301,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A2:G54"/>
@@ -3931,19 +5325,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="99"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="102"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="3" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="103"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="98"/>
       <c r="D3" s="18" t="s">
         <v>24</v>
@@ -3959,7 +5353,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="99" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="98"/>
@@ -3981,7 +5375,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="99" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="98"/>
@@ -3997,7 +5391,7 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="99" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="98"/>
@@ -4039,7 +5433,7 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="99" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="98"/>
@@ -4081,7 +5475,7 @@
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="100" t="s">
         <v>190</v>
       </c>
       <c r="C12" s="98"/>
@@ -4135,10 +5529,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="105"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -4189,7 +5583,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="99" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="98"/>
@@ -4243,7 +5637,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="99" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="98"/>
@@ -4297,7 +5691,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="99" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="98"/>
@@ -4351,7 +5745,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="102" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="98"/>
@@ -4405,7 +5799,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="102" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="98"/>
@@ -4459,7 +5853,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="100" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="98"/>
@@ -4481,7 +5875,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="99" t="s">
         <v>53</v>
       </c>
       <c r="C34" s="98"/>
@@ -4503,7 +5897,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="99" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="98"/>
@@ -4525,7 +5919,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="99" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="98"/>
@@ -4547,7 +5941,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="99" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="98"/>
@@ -4580,62 +5974,62 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="26"/>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
       <c r="G39" s="98"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="26"/>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
       <c r="G40" s="98"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="26"/>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
       <c r="G41" s="98"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="26"/>
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
       <c r="G42" s="98"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="26"/>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
       <c r="G43" s="98"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="26"/>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
       <c r="G44" s="98"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
@@ -4697,14 +6091,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B9:C9"/>
@@ -4717,19 +6109,21 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:F29"/>
@@ -5319,7 +6713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:F24"/>
@@ -5811,1670 +7205,6 @@
       </c>
       <c r="F24" s="34" t="s">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:F62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="39">
-        <f>+descriptive_experiment2!B2</f>
-        <v>0.1428571492433548</v>
-      </c>
-      <c r="E3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="39">
-        <f>+descriptive_experiment2!B11</f>
-        <v>0.15398886799812317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="39">
-        <f>+descriptive_experiment2!C2</f>
-        <v>0.1775510162115097</v>
-      </c>
-      <c r="E4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="39">
-        <f>+descriptive_experiment2!C11</f>
-        <v>0.16033965349197388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="39">
-        <f>+descriptive_experiment2!C3</f>
-        <v>0.15559247136116028</v>
-      </c>
-      <c r="E6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="39">
-        <f>+descriptive_experiment2!B12</f>
-        <v>0.17058824002742767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="39">
-        <f>+descriptive_experiment2!B3</f>
-        <v>0.17405582964420319</v>
-      </c>
-      <c r="E7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="39">
-        <f>+descriptive_experiment2!C12</f>
-        <v>0.13025210797786713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="39">
-        <f>+descriptive_experiment2!B4</f>
-        <v>0.17253521084785461</v>
-      </c>
-      <c r="E9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="39">
-        <f>+descriptive_experiment2!B13</f>
-        <v>0.15172736346721649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="39">
-        <f>+descriptive_experiment2!C4</f>
-        <v>0.15089285373687744</v>
-      </c>
-      <c r="E10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="39">
-        <f>+descriptive_experiment2!C13</f>
-        <v>0.19358177483081818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="39">
-        <f>+descriptive_experiment2!B5</f>
-        <v>0.1944444477558136</v>
-      </c>
-      <c r="E12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="39">
-        <f>+descriptive_experiment2!B14</f>
-        <v>0.17118225991725922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="39">
-        <f>+descriptive_experiment2!C5</f>
-        <v>0.1257440447807312</v>
-      </c>
-      <c r="E13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F13" s="39">
-        <f>+descriptive_experiment2!C14</f>
-        <v>0.15768194198608398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="39">
-        <f>+descriptive_experiment2!B6</f>
-        <v>0.18342152237892151</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="39">
-        <f>+descriptive_experiment2!B15</f>
-        <v>0.13975155353546143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="39">
-        <f>+descriptive_experiment2!C6</f>
-        <v>0.15400202572345734</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="39">
-        <f>+descriptive_experiment2!C15</f>
-        <v>0.16762383282184601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="39">
-        <f>+descriptive_experiment2!B7</f>
-        <v>0.15089285373687744</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="39">
-        <f>+descriptive_experiment2!B16</f>
-        <v>0.15568862855434418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="39">
-        <f>+descriptive_experiment2!C7</f>
-        <v>0.17325228452682495</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="39">
-        <f>+descriptive_experiment2!C16</f>
-        <v>0.20054945349693298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="39">
-        <f>+descriptive_experiment2!B8</f>
-        <v>0.16926771402359009</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="39">
-        <f>+descriptive_experiment2!B17</f>
-        <v>0.17157584428787231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="39">
-        <f>+descriptive_experiment2!C8</f>
-        <v>0.15950068831443787</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="39">
-        <f>+descriptive_experiment2!C17</f>
-        <v>0.15942856669425964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="39">
-        <f>+descriptive_experiment2!B9</f>
-        <v>0.14801587164402008</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="39">
-        <f>+descriptive_experiment2!B18</f>
-        <v>0.15330187976360321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="39">
-        <f>+descriptive_experiment2!C9</f>
-        <v>0.23639455437660217</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="39">
-        <f>+descriptive_experiment2!C18</f>
-        <v>0.4444444477558136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="39">
-        <f>+descriptive_experiment2!B10</f>
-        <v>0.16639141738414764</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="39">
-        <f>+descriptive_experiment2!B19</f>
-        <v>0.1964285671710968</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" s="48">
-        <f>+descriptive_experiment2!C10</f>
-        <v>0.15889212489128113</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="48">
-        <f>+descriptive_experiment2!C19</f>
-        <v>0.16415464878082275</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="39"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="39"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="39"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="39"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="39"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="39"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="39"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="39"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D48" s="39"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D49" s="39"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D51" s="39"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D52" s="39"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D54" s="37"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D55" s="37"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D8:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:C239"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.1428571492433548</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1775510162115097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.17405582964420319</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.15559247136116028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.17253521084785461</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.15089285373687744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.1944444477558136</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.1257440447807312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.18342152237892151</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.15400202572345734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.15089285373687744</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.17325228452682495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.16926771402359009</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.15950068831443787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.14801587164402008</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.23639455437660217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.16639141738414764</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.15889212489128113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.15398886799812317</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.16033965349197388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.17058824002742767</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.13025210797786713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.15172736346721649</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.19358177483081818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.17118225991725922</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.15768194198608398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.13975155353546143</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.16762383282184601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.15568862855434418</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.20054945349693298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.17157584428787231</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.15942856669425964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.15330187976360321</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.4444444477558136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.1964285671710968</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.16415464878082275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="37"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="37"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="37"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="37"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="37"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="37"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="37"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="37"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="37"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="37"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="37"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="37"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="37"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="37"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="37"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="37"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="37"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="37"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="37"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="37"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="37"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="37"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="37"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="37"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="37"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="37"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="37"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="37"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="37"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="37"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="37"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="37"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="37"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="37"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="37"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="37"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="37"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="37"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="37"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="37"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="37"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="37"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="37"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="37"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="37"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="37"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="37"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="37"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="37"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="37"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="37"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="37"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="37"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="37"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="37"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="37"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="37"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="37"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="37"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="37"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="37"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="37"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="37"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="37"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="37"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="37"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="37"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="37"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="37"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="37"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="37"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="37"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="37"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="37"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="37"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="37"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="37"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="37"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="37"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="37"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="37"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="37"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="37"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="37"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="37"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="37"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="37"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="37"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="37"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="37"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="37"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="37"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="37"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="37"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="37"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="37"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="37"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="37"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="37"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="37"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="37"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="37"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="37"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="37"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="37"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="37"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="37"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="37"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="37"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="37"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="37"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="37"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="37"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="37"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="37"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="37"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="37"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="37"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="37"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="37"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="37"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="37"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="37"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="37"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="37"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="37"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="37"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="37"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="37"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="37"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="37"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="37"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="37"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7742CE6A-A8FB-B34F-A0DD-44EC054447FB}">
-  <dimension ref="A1:A64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="400" workbookViewId="0">
-      <selection activeCell="A48" sqref="A1:A48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7503,31 +7233,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="80"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="80"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
@@ -8234,6 +7964,1670 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Hoja6"/>
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="108" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="39">
+        <f>+descriptive_experiment2!B2</f>
+        <v>0.1428571492433548</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="39">
+        <f>+descriptive_experiment2!B11</f>
+        <v>0.15398886799812317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="39">
+        <f>+descriptive_experiment2!C2</f>
+        <v>0.1775510162115097</v>
+      </c>
+      <c r="E4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="39">
+        <f>+descriptive_experiment2!C11</f>
+        <v>0.16033965349197388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="39">
+        <f>+descriptive_experiment2!C3</f>
+        <v>0.15559247136116028</v>
+      </c>
+      <c r="E6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="39">
+        <f>+descriptive_experiment2!B12</f>
+        <v>0.17058824002742767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="39">
+        <f>+descriptive_experiment2!B3</f>
+        <v>0.17405582964420319</v>
+      </c>
+      <c r="E7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="39">
+        <f>+descriptive_experiment2!C12</f>
+        <v>0.13025210797786713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="39">
+        <f>+descriptive_experiment2!B4</f>
+        <v>0.17253521084785461</v>
+      </c>
+      <c r="E9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="39">
+        <f>+descriptive_experiment2!B13</f>
+        <v>0.15172736346721649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="39">
+        <f>+descriptive_experiment2!C4</f>
+        <v>0.15089285373687744</v>
+      </c>
+      <c r="E10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="39">
+        <f>+descriptive_experiment2!C13</f>
+        <v>0.19358177483081818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="39">
+        <f>+descriptive_experiment2!B5</f>
+        <v>0.1944444477558136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="39">
+        <f>+descriptive_experiment2!B14</f>
+        <v>0.17118225991725922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="39">
+        <f>+descriptive_experiment2!C5</f>
+        <v>0.1257440447807312</v>
+      </c>
+      <c r="E13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="39">
+        <f>+descriptive_experiment2!C14</f>
+        <v>0.15768194198608398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="39">
+        <f>+descriptive_experiment2!B6</f>
+        <v>0.18342152237892151</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="39">
+        <f>+descriptive_experiment2!B15</f>
+        <v>0.13975155353546143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="39">
+        <f>+descriptive_experiment2!C6</f>
+        <v>0.15400202572345734</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="39">
+        <f>+descriptive_experiment2!C15</f>
+        <v>0.16762383282184601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="39">
+        <f>+descriptive_experiment2!B7</f>
+        <v>0.15089285373687744</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="39">
+        <f>+descriptive_experiment2!B16</f>
+        <v>0.15568862855434418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="39">
+        <f>+descriptive_experiment2!C7</f>
+        <v>0.17325228452682495</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="39">
+        <f>+descriptive_experiment2!C16</f>
+        <v>0.20054945349693298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="39">
+        <f>+descriptive_experiment2!B8</f>
+        <v>0.16926771402359009</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="39">
+        <f>+descriptive_experiment2!B17</f>
+        <v>0.17157584428787231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="39">
+        <f>+descriptive_experiment2!C8</f>
+        <v>0.15950068831443787</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="39">
+        <f>+descriptive_experiment2!C17</f>
+        <v>0.15942856669425964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="39">
+        <f>+descriptive_experiment2!B9</f>
+        <v>0.14801587164402008</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="39">
+        <f>+descriptive_experiment2!B18</f>
+        <v>0.15330187976360321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="39">
+        <f>+descriptive_experiment2!C9</f>
+        <v>0.23639455437660217</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="39">
+        <f>+descriptive_experiment2!C18</f>
+        <v>0.4444444477558136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="39">
+        <f>+descriptive_experiment2!B10</f>
+        <v>0.16639141738414764</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="39">
+        <f>+descriptive_experiment2!B19</f>
+        <v>0.1964285671710968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="48">
+        <f>+descriptive_experiment2!C10</f>
+        <v>0.15889212489128113</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="48">
+        <f>+descriptive_experiment2!C19</f>
+        <v>0.16415464878082275</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="39"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="39"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="39"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="39"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="39"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="39"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="39"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="39"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="39"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="39"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="39"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="39"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" s="37"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="37"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D23:F23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Hoja7"/>
+  <dimension ref="A1:C239"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1428571492433548</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1775510162115097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.17405582964420319</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.15559247136116028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.17253521084785461</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.15089285373687744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1944444477558136</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1257440447807312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.18342152237892151</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.15400202572345734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.15089285373687744</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.17325228452682495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.16926771402359009</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.15950068831443787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.14801587164402008</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.23639455437660217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.16639141738414764</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.15889212489128113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.15398886799812317</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.16033965349197388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.17058824002742767</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.13025210797786713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.15172736346721649</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.19358177483081818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.17118225991725922</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.15768194198608398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.13975155353546143</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.16762383282184601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.15568862855434418</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.20054945349693298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.17157584428787231</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.15942856669425964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.15330187976360321</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.4444444477558136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.1964285671710968</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.16415464878082275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="37"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="37"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="37"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="37"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="37"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="37"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="37"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="37"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="37"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="37"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="37"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="37"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="37"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="37"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="37"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="37"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="37"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="37"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="37"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="37"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="37"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="37"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="37"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="37"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="37"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="37"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="37"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="37"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="37"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="37"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="37"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="37"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="37"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="37"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="37"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="37"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="37"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="37"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="37"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="37"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="37"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="37"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="37"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="37"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="37"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="37"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="37"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="37"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="37"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="37"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="37"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="37"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="37"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="37"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="37"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="37"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="37"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="37"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="37"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="37"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="37"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="37"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="37"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="37"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="37"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="37"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="37"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="37"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="37"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="37"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="37"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="37"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="37"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="37"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="37"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="37"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="37"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="37"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="37"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="37"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="37"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="37"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="37"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="37"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="37"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="37"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="37"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="37"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="37"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="37"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="37"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="37"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="37"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="37"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="37"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="37"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="37"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="37"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="37"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="37"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="37"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="37"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="37"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="37"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="37"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="37"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="37"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="37"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="37"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="37"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="37"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="37"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="37"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="37"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="37"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="37"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="37"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="37"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="37"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="37"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="37"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="37"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="37"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="37"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="37"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="37"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="37"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="37"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="37"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="37"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="37"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="37"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="37"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="37"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="37"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="37"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="37"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="37"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="37"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="37"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="37"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="37"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="37"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="37"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="37"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="37"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="37"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="37"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="37"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="37"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="37"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="37"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="37"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="37"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="37"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="37"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="37"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="37"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="37"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="37"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="37"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="37"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="37"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="37"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="37"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="37"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="37"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="37"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="37"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="37"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="37"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="37"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="37"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="37"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7742CE6A-A8FB-B34F-A0DD-44EC054447FB}">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" zoomScale="400" workbookViewId="0">
+      <selection activeCell="A48" sqref="A1:A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1DD94A-8963-B24D-872D-4B2DADB20D7B}">
   <dimension ref="A1:A48"/>
   <sheetViews>
@@ -8463,7 +9857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CC88B7-16E3-BC45-8A44-65424CAF3D29}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -8491,17 +9885,17 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="33" t="s">
         <v>285</v>
       </c>
@@ -8510,10 +9904,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="54">
         <f>+SPHq.xls!B4</f>
         <v>7.4999999999999997E-2</v>
@@ -8528,10 +9922,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
       <c r="E5" s="3"/>
@@ -8620,10 +10014,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="33">
         <f>+SPHq.xls!C4</f>
         <v>40</v>
@@ -8661,7 +10055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826738EF-DCF8-0849-84F2-6F67ED02E4E3}">
   <dimension ref="A2:C8"/>
   <sheetViews>
@@ -8750,7 +10144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714B848A-8494-9843-AE7A-679AAFCC9A83}">
   <dimension ref="A2:C7"/>
   <sheetViews>
@@ -8836,7 +10230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B03C81-AF75-1D44-8E43-37F4D61AD46D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8883,7 +10277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AE9464-D543-5347-901E-DF76EBA52879}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -9018,7 +10412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCF6AA0-84CC-4942-A7DE-530769EC710E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -9047,17 +10441,17 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="33" t="s">
         <v>308</v>
       </c>
@@ -9069,10 +10463,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="54">
         <f>+highvslowrents.xls!B2</f>
         <v>7.5000002980232239E-2</v>
@@ -9087,10 +10481,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
       <c r="E5" s="65"/>
@@ -9147,10 +10541,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="76">
         <f>+highvslowrents.xls!B16</f>
         <v>40</v>
@@ -9171,802 +10565,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09A8A15-113C-FD4B-8451-2FF62A5A1F6F}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7.5000002980232239E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.6956523358821869E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.68094766139984131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.15217390656471252</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.8971591591835022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.10869564861059189</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.83168882131576538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.10869564861059189</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.45457327365875244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.1304347813129425</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5.795367993414402E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.10869564861059189</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.55134385824203491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.6956523358821869E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.2121410071849823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.10869564861059189</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.45457327365875244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.15217390656471252</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.69150441884994507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.77499997615814209</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.23913043737411499</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4.7090151929296553E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8.6956523358821869E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.57192999124526978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7.5000002980232239E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.5217390656471252E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.59882634878158569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.1304347813129425</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.86843127012252808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7.5000002980232239E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.10869564861059189</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.74625486135482788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F483ECB-469A-1342-BD1C-5D75AA7D9160}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="C4" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="89"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="54">
-        <f>+framing.xls!B2</f>
-        <v>7.5000002980232239E-2</v>
-      </c>
-      <c r="D6" s="54">
-        <f>+framing.xls!C2</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="65">
-        <f>+framing.xls!D2</f>
-        <v>0.64590638875961304</v>
-      </c>
-      <c r="F6" s="54">
-        <f>+framing.xls!E2</f>
-        <v>3.0303031206130981E-2</v>
-      </c>
-      <c r="G6" s="65">
-        <f>+framing.xls!F2</f>
-        <v>0.39578583836555481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="54">
-        <f>+framing.xls!B6</f>
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="54">
-        <f>+framing.xls!C6</f>
-        <v>0.4848484992980957</v>
-      </c>
-      <c r="E8" s="65">
-        <f>+framing.xls!D6</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="54">
-        <f>+framing.xls!E6</f>
-        <v>0.4848484992980957</v>
-      </c>
-      <c r="G8" s="65">
-        <f>+framing.xls!F6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="54">
-        <f>+framing.xls!B11</f>
-        <v>0.77499997615814209</v>
-      </c>
-      <c r="D9" s="54">
-        <f>+framing.xls!C11</f>
-        <v>0.45454546809196472</v>
-      </c>
-      <c r="E9" s="65">
-        <f>+framing.xls!D7</f>
-        <v>0.79901796579360962</v>
-      </c>
-      <c r="F9" s="54">
-        <f>+framing.xls!E11</f>
-        <v>0.54545456171035767</v>
-      </c>
-      <c r="G9" s="65">
-        <f>+framing.xls!F11</f>
-        <v>0.72833245992660522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="54">
-        <f>+framing.xls!B8</f>
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="D10" s="54">
-        <f>+framing.xls!C8</f>
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="E10" s="65">
-        <f>+framing.xls!D8</f>
-        <v>0.42496246099472046</v>
-      </c>
-      <c r="F10" s="54">
-        <f>+framing.xls!E8</f>
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="G10" s="65">
-        <f>+framing.xls!F8</f>
-        <v>0.40617862343788147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="76">
-        <f>+framing.xls!B16</f>
-        <v>40</v>
-      </c>
-      <c r="D11" s="76">
-        <f>+framing.xls!C16</f>
-        <v>33</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="76">
-        <f>+framing.xls!E16</f>
-        <v>33</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90CB56-0498-4449-8A32-946B5CAE7EC4}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>7.5000002980232239E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.64590638875961304</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.0303031206130981E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.39578583836555481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.18181818723678589</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.16832375526428223</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6.0606062412261963E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.42361277341842651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.12121212482452393</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.34468939900398254</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6.0606062412261963E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.76508229970932007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.12121212482452393</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6.0606062412261963E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.76508229970932007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.4848484992980957</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.4848484992980957</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.79901796579360962</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9.0909093618392944E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.79166728258132935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.42496246099472046</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.40617862343788147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6.0606062412261963E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.57549059391021729</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.62644612789154053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.12121212482452393</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.0303031206130981E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.51324039697647095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.77499997615814209</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.45454546809196472</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4.6278882771730423E-2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.54545456171035767</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.72833245992660522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.59440505504608154</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.17506572604179382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>7.5000002980232239E-2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3.0303031206130981E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.12121212482452393</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.34468939900398254</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3.0303031206130981E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.51324039697647095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7.5000002980232239E-2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.40192106366157532</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3.0303031206130981E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.36155429482460022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10774,6 +11372,802 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09A8A15-113C-FD4B-8451-2FF62A5A1F6F}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.5000002980232239E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.6956523358821869E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.68094766139984131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.15217390656471252</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.8971591591835022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.10869564861059189</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.83168882131576538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.10869564861059189</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.45457327365875244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.1304347813129425</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.795367993414402E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.10869564861059189</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.55134385824203491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.6956523358821869E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.2121410071849823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.10869564861059189</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.45457327365875244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.15217390656471252</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.69150441884994507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.23913043737411499</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.7090151929296553E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.6956523358821869E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.57192999124526978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7.5000002980232239E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.5217390656471252E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.59882634878158569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.1304347813129425</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.86843127012252808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7.5000002980232239E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.10869564861059189</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.74625486135482788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F483ECB-469A-1342-BD1C-5D75AA7D9160}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="110"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="C4" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="93"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="54">
+        <f>+framing.xls!B2</f>
+        <v>7.5000002980232239E-2</v>
+      </c>
+      <c r="D6" s="54">
+        <f>+framing.xls!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="65">
+        <f>+framing.xls!D2</f>
+        <v>0.64590638875961304</v>
+      </c>
+      <c r="F6" s="54">
+        <f>+framing.xls!E2</f>
+        <v>3.0303031206130981E-2</v>
+      </c>
+      <c r="G6" s="65">
+        <f>+framing.xls!F2</f>
+        <v>0.39578583836555481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="54">
+        <f>+framing.xls!B6</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="54">
+        <f>+framing.xls!C6</f>
+        <v>0.4848484992980957</v>
+      </c>
+      <c r="E8" s="65">
+        <f>+framing.xls!D6</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="54">
+        <f>+framing.xls!E6</f>
+        <v>0.4848484992980957</v>
+      </c>
+      <c r="G8" s="65">
+        <f>+framing.xls!F6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="54">
+        <f>+framing.xls!B11</f>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="D9" s="54">
+        <f>+framing.xls!C11</f>
+        <v>0.45454546809196472</v>
+      </c>
+      <c r="E9" s="65">
+        <f>+framing.xls!D7</f>
+        <v>0.79901796579360962</v>
+      </c>
+      <c r="F9" s="54">
+        <f>+framing.xls!E11</f>
+        <v>0.54545456171035767</v>
+      </c>
+      <c r="G9" s="65">
+        <f>+framing.xls!F11</f>
+        <v>0.72833245992660522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="54">
+        <f>+framing.xls!B8</f>
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="D10" s="54">
+        <f>+framing.xls!C8</f>
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="E10" s="65">
+        <f>+framing.xls!D8</f>
+        <v>0.42496246099472046</v>
+      </c>
+      <c r="F10" s="54">
+        <f>+framing.xls!E8</f>
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="G10" s="65">
+        <f>+framing.xls!F8</f>
+        <v>0.40617862343788147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="84" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="76">
+        <f>+framing.xls!B16</f>
+        <v>40</v>
+      </c>
+      <c r="D11" s="76">
+        <f>+framing.xls!C16</f>
+        <v>33</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="76">
+        <f>+framing.xls!E16</f>
+        <v>33</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90CB56-0498-4449-8A32-946B5CAE7EC4}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.5000002980232239E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.64590638875961304</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3.0303031206130981E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.39578583836555481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.18181818723678589</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.16832375526428223</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.0606062412261963E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.42361277341842651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.12121212482452393</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.34468939900398254</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.0606062412261963E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.76508229970932007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.12121212482452393</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.0606062412261963E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.76508229970932007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.4848484992980957</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4848484992980957</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.79901796579360962</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9.0909093618392944E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.79166728258132935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.42496246099472046</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.40617862343788147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.0606062412261963E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.57549059391021729</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.62644612789154053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.12121212482452393</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.0303031206130981E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.51324039697647095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.45454546809196472</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.6278882771730423E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.54545456171035767</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.72833245992660522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.59440505504608154</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.17506572604179382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.5000002980232239E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.0303031206130981E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.000000074505806E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.12121212482452393</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.34468939900398254</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.0303031206130981E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.51324039697647095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.5000002980232239E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.40192106366157532</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.0303031206130981E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.36155429482460022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D6D3B6-88F0-6F4B-A193-652F2FE6504E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -10802,17 +12196,17 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="109"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="33" t="s">
         <v>308</v>
       </c>
@@ -10824,10 +12218,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="54">
         <f>+lowfreqpriming.xls!B2</f>
         <v>0.11538461595773697</v>
@@ -10842,10 +12236,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
       <c r="E5" s="65"/>
@@ -10902,10 +12296,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="76">
         <f>+lowfreqpriming.xls!B16</f>
         <v>26</v>
@@ -10929,7 +12323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D730D8-450A-724A-BFC8-E5D4E82B4643}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -11164,7 +12558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:E86"/>
   <sheetViews>
@@ -11180,40 +12574,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="45">
         <f>+'controls.xls'!A2</f>
         <v>0.10243195295333862</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="42">
         <f>+mhtreg!C5</f>
         <v>0.30964269999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="88"/>
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -11268,40 +12662,40 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="42">
         <f>+'controls.xls'!A3</f>
         <v>0.10243195295333862</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="42">
         <f>+mhtreg!C6</f>
         <v>0.48956040000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="92"/>
+      <c r="B18" s="88"/>
       <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11340,19 +12734,19 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="42">
         <f>+'controls.xls'!A4</f>
         <v>0.10243195295333862</v>
@@ -11360,11 +12754,11 @@
       <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="42">
         <f>+mhtreg!C7</f>
         <v>0.1866554</v>
@@ -11372,10 +12766,10 @@
       <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="92"/>
+      <c r="B28" s="88"/>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
     </row>
@@ -11420,40 +12814,40 @@
     </row>
     <row r="33" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="42">
         <f>+'controls.xls'!A5</f>
         <v>0.10243195295333862</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="42">
         <f>+mhtreg!C8</f>
         <v>9.7386500000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="92"/>
+      <c r="B37" s="88"/>
       <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -11492,40 +12886,40 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="42">
         <f>+'controls.xls'!A6</f>
         <v>0.34670829772949219</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="42">
         <f>+mhtreg!C9</f>
         <v>9.7605300000000006E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="92"/>
+      <c r="B46" s="88"/>
       <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -11564,40 +12958,40 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="42">
         <f>+'controls.xls'!A7</f>
         <v>0.1787562370300293</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="42">
         <f>+mhtreg!C10</f>
         <v>-7.1526099999999995E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="92"/>
+      <c r="B55" s="88"/>
       <c r="D55" s="42"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -11636,40 +13030,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="B62" s="110"/>
-      <c r="C62" s="110"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
       <c r="D62" s="42">
         <f>+'controls.xls'!A8</f>
         <v>0.16815458238124847</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="42">
         <f>+mhtreg!C11</f>
         <v>-2.8691100000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B64" s="92"/>
+      <c r="B64" s="88"/>
       <c r="D64" s="42"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -11708,40 +13102,40 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="B71" s="110"/>
-      <c r="C71" s="110"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="111"/>
       <c r="D71" s="42">
         <f>+'controls.xls'!A9</f>
         <v>0.1720786988735199</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="92" t="s">
+      <c r="A72" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="42">
         <f>+mhtreg!C12</f>
         <v>-6.3201800000000002E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="92"/>
+      <c r="B73" s="88"/>
       <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -11780,40 +13174,40 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="83" t="s">
+      <c r="A79" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="111" t="s">
         <v>262</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="110"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="111"/>
       <c r="D80" s="42">
         <f>+'controls.xls'!A10</f>
         <v>0.16056397557258606</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="88"/>
       <c r="D81" s="42">
         <f>+mhtreg!C13</f>
         <v>2.9161900000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="92"/>
+      <c r="B82" s="88"/>
       <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -11853,33 +13247,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:B37"/>
@@ -11889,6 +13256,33 @@
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:B82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11897,10 +13291,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A3:F20"/>
+  <dimension ref="A3:F21"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11916,11 +13310,11 @@
       <c r="B3" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="43" t="s">
         <v>173</v>
       </c>
@@ -11929,10 +13323,10 @@
       <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" t="s">
         <v>24</v>
       </c>
@@ -12191,6 +13585,11 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -12205,25 +13604,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="218" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40" t="s">
         <v>142</v>
@@ -12244,14 +13643,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>147</v>
       </c>
@@ -12273,9 +13672,8 @@
       <c r="G5" s="40">
         <v>6.6667000000000002E-3</v>
       </c>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>148</v>
       </c>
@@ -12297,9 +13695,8 @@
       <c r="G6" s="40">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>149</v>
       </c>
@@ -12321,9 +13718,8 @@
       <c r="G7" s="40">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>150</v>
       </c>
@@ -12345,9 +13741,8 @@
       <c r="G8" s="40">
         <v>6.3333E-3</v>
       </c>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>151</v>
       </c>
@@ -12369,9 +13764,8 @@
       <c r="G9" s="40">
         <v>1</v>
       </c>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>152</v>
       </c>
@@ -12393,9 +13787,8 @@
       <c r="G10" s="40">
         <v>0.84799999999999998</v>
       </c>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>153</v>
       </c>
@@ -12417,9 +13810,8 @@
       <c r="G11" s="40">
         <v>1</v>
       </c>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>154</v>
       </c>
@@ -12441,9 +13833,8 @@
       <c r="G12" s="40">
         <v>0.30033330000000003</v>
       </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>155</v>
       </c>
@@ -12465,9 +13856,8 @@
       <c r="G13" s="40">
         <v>1</v>
       </c>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>174</v>
       </c>
@@ -12489,9 +13879,8 @@
       <c r="G14" s="40">
         <v>1</v>
       </c>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>187</v>
       </c>
@@ -12513,9 +13902,8 @@
       <c r="G15" s="40">
         <v>1</v>
       </c>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>188</v>
       </c>
@@ -12537,9 +13925,8 @@
       <c r="G16" s="40">
         <v>1</v>
       </c>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>216</v>
       </c>
@@ -12561,9 +13948,8 @@
       <c r="G17" s="40">
         <v>1</v>
       </c>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>217</v>
       </c>
@@ -12585,9 +13971,8 @@
       <c r="G18" s="40">
         <v>1</v>
       </c>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>218</v>
       </c>
@@ -12609,9 +13994,8 @@
       <c r="G19" s="40">
         <v>0.98699999999999999</v>
       </c>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>219</v>
       </c>
@@ -12633,9 +14017,8 @@
       <c r="G20" s="40">
         <v>1</v>
       </c>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>220</v>
       </c>
@@ -12657,9 +14040,8 @@
       <c r="G21" s="40">
         <v>1</v>
       </c>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>221</v>
       </c>
@@ -12681,9 +14063,8 @@
       <c r="G22" s="40">
         <v>1</v>
       </c>
-      <c r="J22" s="40"/>
-    </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>222</v>
       </c>
@@ -12705,9 +14086,8 @@
       <c r="G23" s="40">
         <v>1</v>
       </c>
-      <c r="J23" s="40"/>
-    </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>223</v>
       </c>
@@ -12729,9 +14109,8 @@
       <c r="G24" s="40">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-    </row>
-    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>224</v>
       </c>
@@ -12753,14 +14132,13 @@
       <c r="G25" s="40">
         <v>1</v>
       </c>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>194</v>
       </c>
@@ -12774,7 +14152,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>198</v>
       </c>
@@ -12788,7 +14166,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>198</v>
       </c>
@@ -12802,7 +14180,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -12813,7 +14191,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>198</v>
       </c>
@@ -12826,11 +14204,11 @@
       <c r="G35" t="s">
         <v>207</v>
       </c>
-      <c r="K35" t="s">
+      <c r="J35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -12840,11 +14218,11 @@
       <c r="H36" t="s">
         <v>209</v>
       </c>
-      <c r="M36" t="s">
+      <c r="L36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -12854,11 +14232,11 @@
       <c r="I37" t="s">
         <v>211</v>
       </c>
-      <c r="N37" t="s">
+      <c r="M37" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -12868,18 +14246,18 @@
       <c r="H38" t="s">
         <v>213</v>
       </c>
-      <c r="M38" t="s">
+      <c r="L38" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>198</v>
       </c>
       <c r="C39" t="s">
         <v>214</v>
       </c>
-      <c r="K39" t="s">
+      <c r="J39" t="s">
         <v>215</v>
       </c>
     </row>
@@ -13226,7 +14604,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13438,11 +14816,11 @@
       <c r="B3" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="43" t="s">
         <v>173</v>
       </c>
@@ -13451,10 +14829,10 @@
       <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" t="s">
         <v>24</v>
       </c>
@@ -13764,7 +15142,7 @@
       <c r="F3" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="111"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
